--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD26"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -773,7 +773,7 @@
         <v>0.6089</v>
       </c>
       <c r="H3" s="4">
-        <v>0.97499999999999998</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="I3" s="4">
         <v>0.56666700000000003</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>0.80800000000000016</v>
+        <v>0.76900000000000013</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
@@ -1384,28 +1384,28 @@
         <v>15</v>
       </c>
       <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="15">
-        <v>3</v>
-      </c>
       <c r="D19" s="15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F19" s="15">
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
         <v>6</v>
       </c>
-      <c r="G19" s="15">
+      <c r="H19" s="15">
+        <v>8</v>
+      </c>
+      <c r="I19" s="15">
         <v>7</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15">
-        <v>8</v>
       </c>
       <c r="J19" s="15">
         <v>9</v>
@@ -1838,35 +1838,35 @@
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B30" s="7">
         <f>AVERAGE(B18:B29)</f>
-        <v>3.2916666666666665</v>
+        <v>3.2083333333333335</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" ref="C30:J30" si="2">AVERAGE(C18:C29)</f>
-        <v>3.75</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>2.7083333333333335</v>
+        <v>2.625</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="2"/>
-        <v>3.5416666666666665</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>4.541666666666667</v>
+        <v>4.458333333333333</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>5.458333333333333</v>
+        <v>5.375</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="2"/>
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>6.833333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
